--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -587,6 +587,99 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:13:39.936422</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:43:37.313100</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021-04-01 14:46:10.269166</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -680,6 +680,347 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-04-01 15:14:42.328650</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>100</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-04-01 15:27:37.709801</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>34</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34</v>
+      </c>
+      <c r="I9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>100</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-04-01 15:28:44.328220</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>42</v>
+      </c>
+      <c r="E10" t="n">
+        <v>42</v>
+      </c>
+      <c r="F10" t="n">
+        <v>42</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32</v>
+      </c>
+      <c r="H10" t="n">
+        <v>42</v>
+      </c>
+      <c r="I10" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>100</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-04-01 15:28:55.951325</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>37</v>
+      </c>
+      <c r="E11" t="n">
+        <v>36</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>37</v>
+      </c>
+      <c r="I11" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>100</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-04-01 15:29:05.953316</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>27</v>
+      </c>
+      <c r="E12" t="n">
+        <v>26</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27</v>
+      </c>
+      <c r="G12" t="n">
+        <v>22</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27</v>
+      </c>
+      <c r="I12" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>50</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-04-08 10:28:10.365738</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>50</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-04-08 10:30:09.387693</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>30</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>50</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021-04-08 10:30:20.690811</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>17</v>
+      </c>
+      <c r="E15" t="n">
+        <v>18</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17</v>
+      </c>
+      <c r="G15" t="n">
+        <v>18</v>
+      </c>
+      <c r="H15" t="n">
+        <v>18</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>100</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-04-08 10:31:25.854300</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>45</v>
+      </c>
+      <c r="E16" t="n">
+        <v>43</v>
+      </c>
+      <c r="F16" t="n">
+        <v>46</v>
+      </c>
+      <c r="G16" t="n">
+        <v>18</v>
+      </c>
+      <c r="H16" t="n">
+        <v>46</v>
+      </c>
+      <c r="I16" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>100</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021-04-08 10:32:02.904430</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>46</v>
+      </c>
+      <c r="E17" t="n">
+        <v>47</v>
+      </c>
+      <c r="F17" t="n">
+        <v>47</v>
+      </c>
+      <c r="G17" t="n">
+        <v>33</v>
+      </c>
+      <c r="H17" t="n">
+        <v>47</v>
+      </c>
+      <c r="I17" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>100</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021-04-08 10:33:05.418990</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>47</v>
+      </c>
+      <c r="E18" t="n">
+        <v>48</v>
+      </c>
+      <c r="F18" t="n">
+        <v>48</v>
+      </c>
+      <c r="G18" t="n">
+        <v>47</v>
+      </c>
+      <c r="H18" t="n">
+        <v>48</v>
+      </c>
+      <c r="I18" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -1021,6 +1021,316 @@
         <v>48</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>100</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021-04-08 13:29:13.116392</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-04-08 13:29:35.558046</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021-04-08 13:37:09.238480</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2021-04-08 13:39:48.093282</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25</v>
+      </c>
+      <c r="G22" t="n">
+        <v>21</v>
+      </c>
+      <c r="H22" t="n">
+        <v>25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2021-04-08 13:41:46.891262</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23</v>
+      </c>
+      <c r="F23" t="n">
+        <v>23</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20</v>
+      </c>
+      <c r="H23" t="n">
+        <v>23</v>
+      </c>
+      <c r="I23" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>40</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2021-04-08 13:42:09.620661</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021-04-08 13:43:02.467024</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>16</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" t="n">
+        <v>16</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>16</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2021-04-08 13:43:20.036084</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>40</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021-04-08 13:46:20.605873</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>40</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021-04-08 13:54:29.560418</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>22</v>
+      </c>
+      <c r="E28" t="n">
+        <v>22</v>
+      </c>
+      <c r="F28" t="n">
+        <v>22</v>
+      </c>
+      <c r="G28" t="n">
+        <v>19</v>
+      </c>
+      <c r="H28" t="n">
+        <v>22</v>
+      </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -1331,6 +1331,161 @@
         <v>22</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>40</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021-04-08 14:13:06.094234</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14</v>
+      </c>
+      <c r="H29" t="n">
+        <v>15</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>40</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021-04-08 14:14:38.097649</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>12</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>100</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021-04-08 14:40:22.418865</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>42</v>
+      </c>
+      <c r="E31" t="n">
+        <v>43</v>
+      </c>
+      <c r="F31" t="n">
+        <v>43</v>
+      </c>
+      <c r="G31" t="n">
+        <v>23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>43</v>
+      </c>
+      <c r="I31" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021-04-08 14:47:30.725097</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>49</v>
+      </c>
+      <c r="E32" t="n">
+        <v>46</v>
+      </c>
+      <c r="F32" t="n">
+        <v>49</v>
+      </c>
+      <c r="G32" t="n">
+        <v>42</v>
+      </c>
+      <c r="H32" t="n">
+        <v>49</v>
+      </c>
+      <c r="I32" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>100</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021-04-08 15:04:40.175968</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>16</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16</v>
+      </c>
+      <c r="G33" t="n">
+        <v>17</v>
+      </c>
+      <c r="H33" t="n">
+        <v>17</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -1486,6 +1486,905 @@
         <v>17</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021-04-12 22:59:29.057130</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>24</v>
+      </c>
+      <c r="E34" t="n">
+        <v>24</v>
+      </c>
+      <c r="F34" t="n">
+        <v>24</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>24</v>
+      </c>
+      <c r="I34" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>50</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:03:54.967826</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>21</v>
+      </c>
+      <c r="E35" t="n">
+        <v>21</v>
+      </c>
+      <c r="F35" t="n">
+        <v>21</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>21</v>
+      </c>
+      <c r="I35" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>50</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:21:44.346920</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>50</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:21:59.871528</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>28</v>
+      </c>
+      <c r="E37" t="n">
+        <v>26</v>
+      </c>
+      <c r="F37" t="n">
+        <v>28</v>
+      </c>
+      <c r="G37" t="n">
+        <v>26</v>
+      </c>
+      <c r="H37" t="n">
+        <v>28</v>
+      </c>
+      <c r="I37" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>50</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:22:13.088570</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E38" t="n">
+        <v>15</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15</v>
+      </c>
+      <c r="I38" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>50</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:25:55.590908</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>18</v>
+      </c>
+      <c r="E39" t="n">
+        <v>18</v>
+      </c>
+      <c r="F39" t="n">
+        <v>18</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>18</v>
+      </c>
+      <c r="I39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>50</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:34:46.562702</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>23</v>
+      </c>
+      <c r="E40" t="n">
+        <v>23</v>
+      </c>
+      <c r="F40" t="n">
+        <v>23</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7</v>
+      </c>
+      <c r="H40" t="n">
+        <v>23</v>
+      </c>
+      <c r="I40" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>50</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:42:20.780537</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>30</v>
+      </c>
+      <c r="E41" t="n">
+        <v>30</v>
+      </c>
+      <c r="F41" t="n">
+        <v>30</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>30</v>
+      </c>
+      <c r="I41" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>50</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:44:14.942511</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>18</v>
+      </c>
+      <c r="E42" t="n">
+        <v>18</v>
+      </c>
+      <c r="F42" t="n">
+        <v>18</v>
+      </c>
+      <c r="G42" t="n">
+        <v>18</v>
+      </c>
+      <c r="H42" t="n">
+        <v>18</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>50</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:44:40.989959</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" t="n">
+        <v>20</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>21</v>
+      </c>
+      <c r="I43" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>50</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:46:21.951158</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" t="n">
+        <v>25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>25</v>
+      </c>
+      <c r="G44" t="n">
+        <v>18</v>
+      </c>
+      <c r="H44" t="n">
+        <v>25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>50</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021-04-12 23:48:04.859302</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>17</v>
+      </c>
+      <c r="E45" t="n">
+        <v>17</v>
+      </c>
+      <c r="F45" t="n">
+        <v>17</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14</v>
+      </c>
+      <c r="H45" t="n">
+        <v>17</v>
+      </c>
+      <c r="I45" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>50</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-04-13 09:45:17.459758</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>18</v>
+      </c>
+      <c r="E46" t="n">
+        <v>18</v>
+      </c>
+      <c r="F46" t="n">
+        <v>16</v>
+      </c>
+      <c r="G46" t="n">
+        <v>18</v>
+      </c>
+      <c r="H46" t="n">
+        <v>18</v>
+      </c>
+      <c r="I46" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>25</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2021-04-13 09:48:09.721582</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>25</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2021-04-13 09:49:14.983317</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>25</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2021-04-13 09:51:25.505023</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>25</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2021-04-13 09:52:56.876284</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>25</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021-04-13 09:56:40.384037</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2021-04-13 09:57:59.621126</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>25</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2021-04-13 10:09:55.571381</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>25</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021-04-13 10:16:43.478657</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>25</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2021-04-13 17:19:01.606563</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>25</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2021-04-13 17:19:24.938099</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>16</v>
+      </c>
+      <c r="E56" t="n">
+        <v>16</v>
+      </c>
+      <c r="F56" t="n">
+        <v>16</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>16</v>
+      </c>
+      <c r="I56" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>25</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2021-04-13 17:40:04.104900</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>25</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2021-04-13 20:49:07.136082</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>25</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2021-04-13 21:00:35.299497</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>17</v>
+      </c>
+      <c r="E59" t="n">
+        <v>17</v>
+      </c>
+      <c r="F59" t="n">
+        <v>17</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>17</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>25</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2021-04-13 21:02:02.451759</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>12</v>
+      </c>
+      <c r="E60" t="n">
+        <v>12</v>
+      </c>
+      <c r="F60" t="n">
+        <v>12</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9</v>
+      </c>
+      <c r="H60" t="n">
+        <v>12</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>25</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2021-04-13 21:02:48.885001</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>25</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2021-04-13 21:04:21.459328</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>11</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>11</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -587,6 +587,189 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021-04-01 04:15:40.364422</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021-04-01 04:18:00.339001</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>50</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021-04-01 04:20:35.999069</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>50</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-04-01 04:31:17.323771</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-04-01 04:32:29.436554</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>27</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>26</v>
+      </c>
+      <c r="I9" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>50</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-04-04 04:51:56.682948</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -770,6 +770,440 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>30</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-04-14 23:16:00.140322</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-04-14 23:16:51.742843</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>30</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-04-14 23:46:32.245210</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>30</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-04-14 23:48:25.206486</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021-04-14 23:50:16.661164</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-04-14 23:54:28.575005</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021-04-15 13:12:56.141677</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021-04-15 13:45:35.189974</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021-04-15 13:46:01.736827</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-04-15 13:46:47.675392</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021-04-15 13:48:23.374307</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>15</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2021-04-15 13:51:07.392178</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:10:51.898023</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>15</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:12:56.397366</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17440" windowWidth="16280" xWindow="18600" yWindow="1900"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17440" windowWidth="27280" xWindow="6320" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Runtimes" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,7 +57,7 @@
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -436,17 +435,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="24.6640625"/>
-    <col customWidth="1" max="6" min="6" width="19.33203125"/>
-    <col customWidth="1" max="7" min="7" width="15.6640625"/>
+    <col customWidth="1" max="3" min="3" style="2" width="10.83203125"/>
+    <col customWidth="1" max="4" min="4" style="2" width="15.6640625"/>
+    <col customWidth="1" max="5" min="5" style="2" width="24.6640625"/>
+    <col customWidth="1" max="8" min="8" style="2" width="19.33203125"/>
+    <col customWidth="1" max="9" min="9" style="2" width="15.6640625"/>
+    <col customWidth="1" max="12" min="12" style="2" width="15.5"/>
+    <col customWidth="1" max="13" min="13" style="2" width="22.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,98 +465,137 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Criticality</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Graph Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Greedy DP</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Greedy</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Recursive DP Root</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Rec DP No Root</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Bipartite LP</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Bipartite Greedy</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Bipartite Forward Thinking</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44286.79940059028</v>
-      </c>
-      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:05:55.314916</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2021-03-31 19:11:56.746753</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:10:23.742643</t>
+        </is>
+      </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -561,647 +603,2381 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2021-03-31 19:14:38.958823</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>22</v>
-      </c>
-      <c r="E4" t="n">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:10:57.174187</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2021-04-01 04:15:40.364422</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:11:34.834900</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26</v>
+      </c>
+      <c r="L5" t="n">
+        <v>21</v>
+      </c>
+      <c r="M5" t="n">
         <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>21</v>
-      </c>
-      <c r="H5" t="n">
-        <v>25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2021-04-01 04:18:00.339001</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>19</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:19:00.355705</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2021-04-01 04:20:35.999069</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>22</v>
-      </c>
-      <c r="E7" t="n">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Erdos-Renyi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:21:05.379308</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>26</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26</v>
+      </c>
+      <c r="L7" t="n">
+        <v>24</v>
+      </c>
+      <c r="M7" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2021-04-01 04:31:17.323771</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Erdos-Renyi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:23:19.569380</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>27</v>
+      </c>
+      <c r="K8" t="n">
+        <v>27</v>
+      </c>
+      <c r="L8" t="n">
+        <v>22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2021-04-01 04:32:29.436554</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>27</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Erdos-Renyi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:24:05.382943</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>-4</v>
       </c>
       <c r="G9" t="n">
+        <v>-57</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-57</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26</v>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:25:22.920786</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
         <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2021-04-04 04:51:56.682948</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:29:11.607745</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2021-04-14 23:16:00.140322</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2021-04-14 23:16:51.742843</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:30:04.604020</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>19</v>
+      </c>
+      <c r="K12" t="n">
+        <v>19</v>
+      </c>
+      <c r="L12" t="n">
+        <v>15</v>
+      </c>
+      <c r="M12" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2021-04-14 23:46:32.245210</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:31:19.786724</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="J13" t="n">
+        <v>38</v>
+      </c>
+      <c r="K13" t="n">
+        <v>38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2021-04-14 23:48:25.206486</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:31:32.901744</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="J14" t="n">
+        <v>51</v>
+      </c>
+      <c r="K14" t="n">
+        <v>51</v>
+      </c>
+      <c r="L14" t="n">
+        <v>49</v>
+      </c>
+      <c r="M14" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2021-04-14 23:50:16.661164</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:31:45.182820</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="J15" t="n">
+        <v>78</v>
+      </c>
+      <c r="K15" t="n">
+        <v>78</v>
+      </c>
+      <c r="L15" t="n">
+        <v>71</v>
+      </c>
+      <c r="M15" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2021-04-14 23:54:28.575005</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:31:57.612378</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="J16" t="n">
+        <v>43</v>
+      </c>
+      <c r="K16" t="n">
+        <v>43</v>
+      </c>
+      <c r="L16" t="n">
+        <v>40</v>
+      </c>
+      <c r="M16" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2021-04-15 13:12:56.141677</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:49:06.557952</t>
+        </is>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>46</v>
+      </c>
+      <c r="K17" t="n">
+        <v>46</v>
+      </c>
+      <c r="L17" t="n">
+        <v>40</v>
+      </c>
+      <c r="M17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2021-04-15 13:45:35.189974</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Barabasi-Alber</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:49:26.399543</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>37</v>
+      </c>
+      <c r="G18" t="n">
+        <v>37</v>
+      </c>
+      <c r="H18" t="n">
+        <v>37</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
+      <c r="J18" t="n">
+        <v>37</v>
+      </c>
+      <c r="K18" t="n">
+        <v>37</v>
+      </c>
+      <c r="L18" t="n">
+        <v>33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2021-04-15 13:46:01.736827</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Barabasi-Alber</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:49:53.200048</t>
+        </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G19" t="n">
+        <v>-26</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-26</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>120</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:55:53.289745</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>16</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
         <v>15</v>
       </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2021-04-15 13:46:47.675392</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
+      <c r="J20" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18</v>
+      </c>
+      <c r="L20" t="n">
+        <v>12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2021-04-15 13:48:23.374307</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:58:41.047170</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18</v>
+      </c>
+      <c r="K21" t="n">
+        <v>18</v>
+      </c>
+      <c r="L21" t="n">
+        <v>12</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2021-04-15 13:51:07.392178</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Barabasi-Alber</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2021-04-15 10:02:35.187322</t>
+        </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="G22" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-17</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:10:51.898023</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Erdos-Renyi</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2021-04-15 10:08:07.386719</t>
+        </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="J23" t="n">
+        <v>64</v>
+      </c>
+      <c r="K23" t="n">
+        <v>64</v>
+      </c>
+      <c r="L23" t="n">
+        <v>62</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>120</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2021-04-15 10:44:26.623352</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>14</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>120</v>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2021-04-15 11:58:10.193746</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>13</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13</v>
+      </c>
+      <c r="J25" t="n">
+        <v>13</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9</v>
+      </c>
+      <c r="M25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>120</v>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2021-04-15 12:41:14.163092</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>15</v>
       </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:53:10.747777</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>15</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:53:44.977007</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>15</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:32:52.886023</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" style="2" width="10.83203125"/>
+    <col customWidth="1" max="4" min="4" style="2" width="14"/>
+    <col customWidth="1" max="8" min="8" style="2" width="18.33203125"/>
+    <col customWidth="1" max="9" min="9" style="2" width="16"/>
+    <col customWidth="1" max="12" min="12" style="2" width="15.6640625"/>
+    <col customWidth="1" max="13" min="13" style="2" width="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Num Nodes</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Num Seeds</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Criticality</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Graph Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Greedy DP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Recursive DP</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LP</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Bipartite LP</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Bipartite Greedy</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Bipartite Forward Thinking</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:05:55.314916</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001906703999999593</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.416800000026313e-05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1077877169999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01926224699999945</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01754831000000046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0003649469999995603</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01628781199999985</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:10:23.742643</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0009410939999998646</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.98610000005695e-05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01484301200000004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0115967019999994</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.009240920999999958</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0001865820000004348</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.002277910000000105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:10:57.174187</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001021516999999861</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0001020750000000348</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.009463725999999895</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01316456200000005</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01066594999999992</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0002340920000003521</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0060104299999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:11:34.834900</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.002691827999999674</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.000170809000000105</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.462554173000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01380037499999887</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01510221199999862</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0003414450000001068</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.01951288200000079</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:19:00.355705</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.004441408000001701</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0002467050000003468</v>
+      </c>
+      <c r="H6" t="n">
+        <v>59.127097166</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01565528999999799</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01294892299999617</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0003245779999900833</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.01469435999999291</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>100</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Erdos-Renyi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:21:05.379308</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0007743730000004945</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.408900000006042e-05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0001435709999997314</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01281751700000022</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01122961200000017</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0001779029999999793</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.932900000020339e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>100</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Erdos-Renyi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:23:19.569380</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001254335999999689</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0001028100000004528</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0240933839999995</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01104521399999925</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01078593599999955</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0002133490000000293</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0001918789999999504</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>200</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Erdos-Renyi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2021-04-14 18:24:05.382943</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000906771999999556</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.363899999924257e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0003689539999998104</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0116106880000002</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01183860999999986</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0002552350000000203</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.000303370000000136</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>100</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:25:22.920786</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.003321568999999691</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.415900000040665e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1988893869999995</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.04919849900000006</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01357102699999935</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.000387059000000356</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.00620999300000058</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>100</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:29:11.607745</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003119725000000351</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.987700000049557e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.326198315</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01328648999999871</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01431293299999936</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0003408379999996214</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.002619207999998707</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>100</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:30:04.604020</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.002275857999999964</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.303400000007287e-05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.7952622480000002</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01651185800000032</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01177188800000017</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0002537849999999509</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.002018362000000273</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>100</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:31:19.786724</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.00242786400000039</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.672600000001694e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2354570530000002</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01379641900000017</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01327967699999988</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0003869510000003018</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.003806481999999889</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>100</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:31:32.901744</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.003300097000000335</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8.130099999981155e-05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.08790398400000043</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.01054298300000056</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01184818499999984</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0002957299999994945</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.003181194999999803</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>100</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:31:45.182820</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001604698999999599</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.732700000000591e-05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0824308260000004</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.01024196100000019</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01051763400000016</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0001844550000003053</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0003277950000004637</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>100</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:31:57.612378</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.002582449000000153</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.221200000007144e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.309813247</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01255177700000054</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01294345600000035</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0003768500000003172</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.003610779000000619</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>120</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:49:06.557952</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003026996000000004</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0001438299999998449</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.781520019999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04193085200000013</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01306037500000023</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0003630150000013543</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.003378899999999518</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>120</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Barabasi-Alber</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:49:26.399543</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0008329490000003048</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.922499999957751e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0003649570000003877</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01151496899999938</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01092068299999926</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0004812770000004463</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0001307940000003782</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>120</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Barabasi-Alber</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:49:53.200048</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0004872790000014504</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.802400000272542e-05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.955200000177911e-05</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.009994047999999367</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.008793827000001642</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.000159827000000945</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.366200000153867e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>120</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:55:53.289745</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.004878433000000015</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9.554800000000085e-05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.329066073999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04827031999999853</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01292491300000087</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.000420804000000885</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.004925099000001154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>120</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2021-04-15 09:58:41.047170</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.003839371999999841</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0001687029999999368</v>
+      </c>
+      <c r="H21" t="n">
+        <v>120.945182222</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.04432141700000614</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01571499899999651</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0004449120000060702</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.004846771000003969</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>120</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Barabasi-Alber</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2021-04-15 10:02:35.187322</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0009814499999993842</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.397399999942706e-05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0001161249999999114</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.040075957</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.007982359999999744</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0001307160000001417</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.134600000036073e-05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>120</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Erdos-Renyi</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2021-04-15 10:08:07.386719</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001193660000000207</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.395000000010583e-05</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0001319769999996723</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.03436648799999986</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.009373894999999521</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0001517899999994299</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.173600000027648e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>120</v>
+      </c>
       <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2021-04-15 10:44:26.623352</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.007398625000000436</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0001391889999995399</v>
+      </c>
+      <c r="H24" t="n">
+        <v>295.815093696</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.04602730200002725</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01255554900001243</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0004205960000263076</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.006044628000040575</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>120</v>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2021-04-15 11:58:10.193746</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.005223073999999883</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0001029780000001423</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2270.269062385</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.08900562999997419</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01664202700021633</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0003659149997474742</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01292002499985756</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>120</v>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2021-04-15 12:41:14.163092</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.005077439000000794</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0001708989999986699</v>
+      </c>
+      <c r="H26" t="n">
+        <v>376.880759526</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01603731599999492</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.01466766800001551</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0003104950000079043</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.006963487000007262</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>15</v>
+      </c>
+      <c r="B27" t="n">
         <v>3</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2021-04-15 14:12:56.397366</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="C27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:53:10.747777</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0006661000000001138</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.320000000028855e-05</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0004333999999999172</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03814630000000019</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.03018559999999981</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0009433999999997056</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.001124499999999973</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>15</v>
+      </c>
+      <c r="B28" t="n">
         <v>3</v>
       </c>
-      <c r="E24" t="n">
+      <c r="C28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:53:44.977007</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0007048999999996752</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.680000000067963e-05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0002116000000000895</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03169660000000007</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.03231499999999965</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0007665999999995066</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.001097700000000756</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>15</v>
+      </c>
+      <c r="B29" t="n">
         <v>3</v>
       </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
+      <c r="C29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:32:52.886023</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0007778000000002727</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.519999999974544e-05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0005568999999998603</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0343024999999999</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0273791000000001</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.001002300000000123</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0008347999999998024</v>
       </c>
     </row>
   </sheetData>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -435,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -446,8 +446,10 @@
     <col customWidth="1" max="3" min="3" style="2" width="10.83203125"/>
     <col customWidth="1" max="4" min="4" style="2" width="15.6640625"/>
     <col customWidth="1" max="5" min="5" style="2" width="24.6640625"/>
+    <col customWidth="1" max="6" min="6" style="2" width="12.83203125"/>
     <col customWidth="1" max="8" min="8" style="2" width="19.33203125"/>
     <col customWidth="1" max="9" min="9" style="2" width="15.6640625"/>
+    <col customWidth="1" max="11" min="11" style="2" width="13.1640625"/>
     <col customWidth="1" max="12" min="12" style="2" width="15.5"/>
     <col customWidth="1" max="13" min="13" style="2" width="22.6640625"/>
   </cols>
@@ -480,12 +482,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Greedy DP</t>
+          <t>Knapsack DP</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>k Highest</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1610,6 +1612,813 @@
       </c>
       <c r="M26" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>120</v>
+      </c>
+      <c r="B27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:38:43.817765</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+      <c r="G27" t="n">
+        <v>26</v>
+      </c>
+      <c r="H27" t="n">
+        <v>26</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26</v>
+      </c>
+      <c r="K27" t="n">
+        <v>26</v>
+      </c>
+      <c r="L27" t="n">
+        <v>20</v>
+      </c>
+      <c r="M27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>80</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:44:01.897030</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>23</v>
+      </c>
+      <c r="M28" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>80</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:48:02.658166</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>11</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11</v>
+      </c>
+      <c r="L29" t="n">
+        <v>16</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>80</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:49:51.472852</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>18</v>
+      </c>
+      <c r="G30" t="n">
+        <v>17</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>18</v>
+      </c>
+      <c r="K30" t="n">
+        <v>18</v>
+      </c>
+      <c r="L30" t="n">
+        <v>26</v>
+      </c>
+      <c r="M30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>80</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:50:51.486929</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>26</v>
+      </c>
+      <c r="G31" t="n">
+        <v>26</v>
+      </c>
+      <c r="H31" t="n">
+        <v>26</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>26</v>
+      </c>
+      <c r="K31" t="n">
+        <v>26</v>
+      </c>
+      <c r="L31" t="n">
+        <v>25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>80</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:04:24.173649</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>13</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>13</v>
+      </c>
+      <c r="K32" t="n">
+        <v>13</v>
+      </c>
+      <c r="L32" t="n">
+        <v>12</v>
+      </c>
+      <c r="M32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>80</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:05:14.339492</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>21</v>
+      </c>
+      <c r="G33" t="n">
+        <v>21</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>22</v>
+      </c>
+      <c r="K33" t="n">
+        <v>22</v>
+      </c>
+      <c r="L33" t="n">
+        <v>22</v>
+      </c>
+      <c r="M33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>80</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:05:47.689030</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>27</v>
+      </c>
+      <c r="G34" t="n">
+        <v>27</v>
+      </c>
+      <c r="H34" t="n">
+        <v>27</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>27</v>
+      </c>
+      <c r="K34" t="n">
+        <v>27</v>
+      </c>
+      <c r="L34" t="n">
+        <v>27</v>
+      </c>
+      <c r="M34" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>80</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:15:53.201406</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>18</v>
+      </c>
+      <c r="G35" t="n">
+        <v>17</v>
+      </c>
+      <c r="H35" t="n">
+        <v>18</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>18</v>
+      </c>
+      <c r="K35" t="n">
+        <v>18</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-72</v>
+      </c>
+      <c r="M35" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>80</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:19:38.105865</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>30</v>
+      </c>
+      <c r="G36" t="n">
+        <v>30</v>
+      </c>
+      <c r="H36" t="n">
+        <v>29</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>30</v>
+      </c>
+      <c r="K36" t="n">
+        <v>30</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-71</v>
+      </c>
+      <c r="M36" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>80</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:21:23.311921</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>16</v>
+      </c>
+      <c r="G37" t="n">
+        <v>14</v>
+      </c>
+      <c r="H37" t="n">
+        <v>16</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>16</v>
+      </c>
+      <c r="K37" t="n">
+        <v>16</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-66</v>
+      </c>
+      <c r="M37" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>80</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:21:57.355167</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>24</v>
+      </c>
+      <c r="G38" t="n">
+        <v>24</v>
+      </c>
+      <c r="H38" t="n">
+        <v>24</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10</v>
+      </c>
+      <c r="J38" t="n">
+        <v>24</v>
+      </c>
+      <c r="K38" t="n">
+        <v>24</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-47</v>
+      </c>
+      <c r="M38" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>80</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:22:24.547893</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>9</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>9</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-76</v>
+      </c>
+      <c r="M39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>80</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:24:06.278696</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>18</v>
+      </c>
+      <c r="G40" t="n">
+        <v>16</v>
+      </c>
+      <c r="H40" t="n">
+        <v>19</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>19</v>
+      </c>
+      <c r="K40" t="n">
+        <v>19</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-64</v>
+      </c>
+      <c r="M40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>80</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:26:15.423530</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>21</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20</v>
+      </c>
+      <c r="H41" t="n">
+        <v>21</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>21</v>
+      </c>
+      <c r="K41" t="n">
+        <v>21</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-77</v>
+      </c>
+      <c r="M41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:28:36.043118</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>29</v>
+      </c>
+      <c r="G42" t="n">
+        <v>29</v>
+      </c>
+      <c r="H42" t="n">
+        <v>29</v>
+      </c>
+      <c r="I42" t="n">
+        <v>22</v>
+      </c>
+      <c r="J42" t="n">
+        <v>29</v>
+      </c>
+      <c r="K42" t="n">
+        <v>29</v>
+      </c>
+      <c r="M42" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>80</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:30:08.461623</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>13</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>13</v>
+      </c>
+      <c r="K43" t="n">
+        <v>13</v>
+      </c>
+      <c r="L43" t="n">
+        <v>11</v>
+      </c>
+      <c r="M43" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>80</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:40:27.303062</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>21</v>
+      </c>
+      <c r="G44" t="n">
+        <v>21</v>
+      </c>
+      <c r="H44" t="n">
+        <v>18</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>21</v>
+      </c>
+      <c r="K44" t="n">
+        <v>21</v>
+      </c>
+      <c r="L44" t="n">
+        <v>21</v>
+      </c>
+      <c r="M44" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1623,16 +2432,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col customWidth="1" max="3" min="3" style="2" width="10.83203125"/>
     <col customWidth="1" max="4" min="4" style="2" width="14"/>
+    <col customWidth="1" max="5" min="5" style="2" width="25.6640625"/>
     <col customWidth="1" max="8" min="8" style="2" width="18.33203125"/>
     <col customWidth="1" max="9" min="9" style="2" width="16"/>
     <col customWidth="1" max="12" min="12" style="2" width="15.6640625"/>
@@ -2719,6 +3529,762 @@
         <v>0.006963487000007262</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>120</v>
+      </c>
+      <c r="B27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:38:43.817765</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.003724043000000066</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.505399999998332e-05</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10.727459858</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01460885900000086</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01387893800000128</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0003092000000002315</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.003139448000000655</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>80</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:44:01.897030</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.001536758000000304</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.375499999971112e-05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.009071757000000069</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01230302000000005</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01331117900000045</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0002298119999997184</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.001110835999999615</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>80</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:48:02.658166</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.002053579000000028</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.523599999968098e-05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1288559679999999</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0130094190000003</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01267972199999967</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0002198089999998487</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.001844165000000508</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>80</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:49:51.472852</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.001809075999999799</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.532700000010493e-05</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.04186774300000007</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01346923400000044</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01209747199999978</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0002253400000000738</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.001428029000000386</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>80</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2021-04-15 14:50:51.486929</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.002046649999999595</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.4728999999476e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.03979085200000032</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01250991499999987</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01419566399999983</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.000212536000000263</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.001116971000000078</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>80</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:04:24.173649</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.002369521000000319</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.917499999963383e-05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.339846067</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01368354799999949</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.01388095999999983</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0002323559999997116</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.002454419000000208</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>80</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:05:14.339492</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.001775446999999986</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.9175000000522e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.07166025700000045</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0140083940000002</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01282552999999975</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.000209754999999312</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.001303115999999882</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>80</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>cluster_no_cycle</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:05:47.689030</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.001707118000000563</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.37040000001943e-05</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1304826219999997</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.01282875800000038</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01279853499999994</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0002037880000003156</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.001706383000000145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>80</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:15:53.201406</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001633709000000039</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.592499999984568e-05</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.03902557099999981</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01504718199999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.01368311199999983</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0005247160000001472</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.001097958999999982</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>80</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:19:38.105865</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.001813906999999837</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.62630000002784e-05</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02145082400000042</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01187702499999954</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0127090919999997</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0006664559999993713</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.001707403000000163</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>80</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:21:23.311921</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001829345999999177</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.285199999922497e-05</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.2234837260000004</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0138384949999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0115638269999998</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0005488040000001249</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.001296609000000615</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>80</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:21:57.355167</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.001676000000000233</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.497500000029021e-05</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.009761115999999959</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.01267705699999988</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01136620200000005</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0006119880000001743</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0007399860000001368</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>80</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:22:24.547893</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.002812411999999931</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.845000000004319e-05</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.2128916570000001</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.01446940499999982</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.01320732199999952</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0008286530000001235</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.00308293799999948</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>80</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:24:06.278696</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.001783446000000133</v>
+      </c>
+      <c r="G40" t="n">
+        <v>6.356300000032178e-05</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.2219347890000005</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.01302480699999986</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.01202932499999942</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0005287479999998013</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.001472246999999705</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>80</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:26:15.423530</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.002011914000000559</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9.01519999985112e-05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.1289730360000014</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.01290508599999995</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.01448987699999904</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0006958359999984509</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.001513276000000729</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:28:36.043118</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.001601524999999882</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.525499999992078e-05</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.02020331300000011</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.01255156400000024</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0106255019999999</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0004937840000001081</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0004703460000001769</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>80</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:30:08.461623</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001941371000000025</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6.284399999945123e-05</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8778590499999996</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.01270570299999996</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.01159095399999988</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0006165669999997903</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.001135655000000568</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>80</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Watts-Strogatz</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2021-04-15 15:40:27.303062</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.002071626000000215</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.76219999999239e-05</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.1320378500000006</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.01281593500000078</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01315697099999991</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.001325963000000208</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.002163029000000094</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -435,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -447,9 +447,8 @@
     <col customWidth="1" max="4" min="4" style="2" width="15.6640625"/>
     <col customWidth="1" max="5" min="5" style="2" width="24.6640625"/>
     <col customWidth="1" max="8" min="8" style="2" width="19.33203125"/>
-    <col customWidth="1" max="9" min="9" style="2" width="15.6640625"/>
-    <col customWidth="1" max="12" min="12" style="2" width="15.5"/>
-    <col customWidth="1" max="13" min="13" style="2" width="22.6640625"/>
+    <col customWidth="1" max="11" min="11" style="2" width="15.5"/>
+    <col customWidth="1" max="12" min="12" style="2" width="22.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,30 +489,25 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Recursive DP Root</t>
+          <t>Recursive DP</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Rec DP No Root</t>
+          <t>LP</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Bipartite LP</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Bipartite LP</t>
+          <t>Bipartite Greedy</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Bipartite Greedy</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Bipartite Forward Thinking</t>
         </is>
@@ -541,20 +535,17 @@
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -583,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
         <v>18</v>
@@ -592,9 +583,6 @@
         <v>18</v>
       </c>
       <c r="L3" t="n">
-        <v>18</v>
-      </c>
-      <c r="M3" t="n">
         <v>17</v>
       </c>
     </row>
@@ -631,12 +619,9 @@
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -673,12 +658,9 @@
         <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>21</v>
-      </c>
-      <c r="M5" t="n">
         <v>25</v>
       </c>
     </row>
@@ -715,12 +697,9 @@
         <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>20</v>
-      </c>
-      <c r="M6" t="n">
         <v>24</v>
       </c>
     </row>
@@ -751,18 +730,15 @@
         <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
         <v>26</v>
       </c>
       <c r="K7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
-      </c>
-      <c r="M7" t="n">
         <v>25</v>
       </c>
     </row>
@@ -793,18 +769,15 @@
         <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
         <v>27</v>
       </c>
       <c r="K8" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L8" t="n">
-        <v>22</v>
-      </c>
-      <c r="M8" t="n">
         <v>26</v>
       </c>
     </row>
@@ -841,12 +814,9 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="L9" t="n">
-        <v>-13</v>
-      </c>
-      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -854,8 +824,10 @@
       <c r="A10" t="n">
         <v>100</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -877,18 +849,15 @@
         <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -928,12 +897,9 @@
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="M11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -973,12 +939,9 @@
         <v>19</v>
       </c>
       <c r="K12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>15</v>
-      </c>
-      <c r="M12" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1018,12 +981,9 @@
         <v>38</v>
       </c>
       <c r="K13" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L13" t="n">
-        <v>33</v>
-      </c>
-      <c r="M13" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1057,18 +1017,15 @@
         <v>51</v>
       </c>
       <c r="I14" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J14" t="n">
         <v>51</v>
       </c>
       <c r="K14" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L14" t="n">
-        <v>49</v>
-      </c>
-      <c r="M14" t="n">
         <v>46</v>
       </c>
     </row>
@@ -1102,18 +1059,15 @@
         <v>78</v>
       </c>
       <c r="I15" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="J15" t="n">
         <v>78</v>
       </c>
       <c r="K15" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L15" t="n">
-        <v>71</v>
-      </c>
-      <c r="M15" t="n">
         <v>77</v>
       </c>
     </row>
@@ -1147,18 +1101,15 @@
         <v>43</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J16" t="n">
         <v>43</v>
       </c>
       <c r="K16" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L16" t="n">
-        <v>40</v>
-      </c>
-      <c r="M16" t="n">
         <v>42</v>
       </c>
     </row>
@@ -1192,18 +1143,15 @@
         <v>46</v>
       </c>
       <c r="I17" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J17" t="n">
         <v>46</v>
       </c>
       <c r="K17" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L17" t="n">
-        <v>40</v>
-      </c>
-      <c r="M17" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1237,18 +1185,15 @@
         <v>37</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
         <v>37</v>
       </c>
       <c r="K18" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L18" t="n">
-        <v>33</v>
-      </c>
-      <c r="M18" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1288,12 +1233,9 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="M19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1327,18 +1269,15 @@
         <v>18</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
         <v>18</v>
       </c>
       <c r="K20" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
-        <v>12</v>
-      </c>
-      <c r="M20" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1378,12 +1317,9 @@
         <v>18</v>
       </c>
       <c r="K21" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
-        <v>12</v>
-      </c>
-      <c r="M21" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1428,9 +1364,6 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1462,18 +1395,15 @@
         <v>64</v>
       </c>
       <c r="I23" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J23" t="n">
         <v>64</v>
       </c>
       <c r="K23" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L23" t="n">
-        <v>62</v>
-      </c>
-      <c r="M23" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -1513,12 +1443,9 @@
         <v>13</v>
       </c>
       <c r="K24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>10</v>
-      </c>
-      <c r="M24" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1558,12 +1485,9 @@
         <v>13</v>
       </c>
       <c r="K25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
-        <v>9</v>
-      </c>
-      <c r="M25" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1603,12 +1527,9 @@
         <v>9</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
-      </c>
-      <c r="M26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1642,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>2</v>
@@ -1651,9 +1572,6 @@
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
-      </c>
-      <c r="M27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1687,7 +1605,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>6</v>
@@ -1696,9 +1614,6 @@
         <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
-      </c>
-      <c r="M28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1743,8 +1658,3572 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="n">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>50</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:34:23.801535</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>50</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:44:34.317680</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>12</v>
+      </c>
+      <c r="G31" t="n">
+        <v>12</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>12</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12</v>
+      </c>
+      <c r="L31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:45:34.274487</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10</v>
+      </c>
+      <c r="K32" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:50:42.097834</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:51:35.850786</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>15</v>
+      </c>
+      <c r="G34" t="n">
+        <v>15</v>
+      </c>
+      <c r="H34" t="n">
+        <v>13</v>
+      </c>
+      <c r="I34" t="n">
+        <v>15</v>
+      </c>
+      <c r="J34" t="n">
+        <v>15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15</v>
+      </c>
+      <c r="L34" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>50</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:52:06.599651</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>50</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:52:28.969118</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>50</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:54:11.847014</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>9</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>50</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:54:23.804939</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>50</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:55:00.968329</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>12</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" t="n">
+        <v>11</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11</v>
+      </c>
+      <c r="J39" t="n">
+        <v>11</v>
+      </c>
+      <c r="K39" t="n">
+        <v>11</v>
+      </c>
+      <c r="L39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2021-04-21 20:48:16.882318</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:06.525353</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:09.483497</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:12.289364</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:30.664034</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:33.074865</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:35.670015</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>50</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:51:58.857235</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>50</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:52:03.492876</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>13</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13</v>
+      </c>
+      <c r="H48" t="n">
+        <v>13</v>
+      </c>
+      <c r="I48" t="n">
+        <v>13</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13</v>
+      </c>
+      <c r="L48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:52:08.508974</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>7</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:53:49.525644</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>14</v>
+      </c>
+      <c r="G50" t="n">
+        <v>14</v>
+      </c>
+      <c r="H50" t="n">
+        <v>14</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>14</v>
+      </c>
+      <c r="L50" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:53:54.330814</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>12</v>
+      </c>
+      <c r="G51" t="n">
+        <v>12</v>
+      </c>
+      <c r="H51" t="n">
+        <v>12</v>
+      </c>
+      <c r="I51" t="n">
+        <v>12</v>
+      </c>
+      <c r="J51" t="n">
+        <v>12</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:53:57.943463</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:07:38.561719</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>8</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:07:43.927213</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>50</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:07:47.598546</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>50</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:08:45.342388</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>6</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>50</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:08:53.156945</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>50</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:08:56.293633</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>12</v>
+      </c>
+      <c r="G58" t="n">
+        <v>12</v>
+      </c>
+      <c r="H58" t="n">
+        <v>12</v>
+      </c>
+      <c r="I58" t="n">
+        <v>12</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12</v>
+      </c>
+      <c r="L58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>50</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:15:51.307012</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>7</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>50</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:15:55.032962</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>50</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:15:58.121273</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>7</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>7</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>50</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:22:36.934133</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>6</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>50</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:22:39.860498</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>50</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:22:42.505118</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>50</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:23:17.205612</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>13</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13</v>
+      </c>
+      <c r="H65" t="n">
+        <v>13</v>
+      </c>
+      <c r="I65" t="n">
+        <v>13</v>
+      </c>
+      <c r="J65" t="n">
+        <v>13</v>
+      </c>
+      <c r="L65" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>50</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:23:19.818608</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>7</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>50</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:23:22.316309</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>11</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>7</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>50</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2021-04-22 09:54:06.065236</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>13</v>
+      </c>
+      <c r="G68" t="n">
+        <v>13</v>
+      </c>
+      <c r="H68" t="n">
+        <v>13</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>13</v>
+      </c>
+      <c r="L68" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>50</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2021-04-22 09:57:19.139836</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>13</v>
+      </c>
+      <c r="G69" t="n">
+        <v>13</v>
+      </c>
+      <c r="H69" t="n">
+        <v>13</v>
+      </c>
+      <c r="I69" t="n">
+        <v>13</v>
+      </c>
+      <c r="J69" t="n">
+        <v>13</v>
+      </c>
+      <c r="L69" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>50</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2021-04-22 09:57:25.849790</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>12</v>
+      </c>
+      <c r="G70" t="n">
+        <v>12</v>
+      </c>
+      <c r="H70" t="n">
+        <v>12</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>12</v>
+      </c>
+      <c r="L70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>50</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2021-04-22 09:57:28.858794</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>50</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2021-04-22 09:59:06.484022</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>4</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>50</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:04:05.077828</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>50</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:04:21.939477</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>6</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6</v>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6</v>
+      </c>
+      <c r="K74" t="n">
+        <v>6</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>50</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:13:17.521171</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>50</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:13:35.799905</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>50</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:13:53.410365</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>50</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:18:42.077992</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>50</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:23:07.175650</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4</v>
+      </c>
+      <c r="K79" t="n">
+        <v>4</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>50</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:24:17.297602</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>50</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:25:47.909394</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>50</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:25:52.495717</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>7</v>
+      </c>
+      <c r="G82" t="n">
+        <v>7</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>7</v>
+      </c>
+      <c r="K82" t="n">
+        <v>7</v>
+      </c>
+      <c r="L82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>50</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:27:55.989580</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>8</v>
+      </c>
+      <c r="G83" t="n">
+        <v>8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8</v>
+      </c>
+      <c r="J83" t="n">
+        <v>8</v>
+      </c>
+      <c r="K83" t="n">
+        <v>8</v>
+      </c>
+      <c r="L83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>50</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2021-04-22 11:02:52.585649</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11</v>
+      </c>
+      <c r="H84" t="n">
+        <v>11</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11</v>
+      </c>
+      <c r="J84" t="n">
+        <v>11</v>
+      </c>
+      <c r="K84" t="n">
+        <v>11</v>
+      </c>
+      <c r="L84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>50</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:38:10.150746</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>13</v>
+      </c>
+      <c r="G85" t="n">
+        <v>13</v>
+      </c>
+      <c r="H85" t="n">
+        <v>13</v>
+      </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>13</v>
+      </c>
+      <c r="K85" t="n">
+        <v>13</v>
+      </c>
+      <c r="L85" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>50</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:42:36.856689</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>14</v>
+      </c>
+      <c r="G86" t="n">
+        <v>14</v>
+      </c>
+      <c r="H86" t="n">
+        <v>14</v>
+      </c>
+      <c r="I86" t="n">
+        <v>14</v>
+      </c>
+      <c r="J86" t="n">
+        <v>14</v>
+      </c>
+      <c r="K86" t="n">
+        <v>14</v>
+      </c>
+      <c r="L86" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>50</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:42:45.466882</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>19</v>
+      </c>
+      <c r="G87" t="n">
+        <v>19</v>
+      </c>
+      <c r="H87" t="n">
+        <v>19</v>
+      </c>
+      <c r="I87" t="n">
+        <v>19</v>
+      </c>
+      <c r="J87" t="n">
+        <v>19</v>
+      </c>
+      <c r="K87" t="n">
+        <v>19</v>
+      </c>
+      <c r="L87" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>50</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:42:47.863179</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>16</v>
+      </c>
+      <c r="G88" t="n">
+        <v>16</v>
+      </c>
+      <c r="H88" t="n">
+        <v>16</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>16</v>
+      </c>
+      <c r="K88" t="n">
+        <v>16</v>
+      </c>
+      <c r="L88" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>50</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:47:50.529667</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>25</v>
+      </c>
+      <c r="G89" t="n">
+        <v>25</v>
+      </c>
+      <c r="H89" t="n">
+        <v>25</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>25</v>
+      </c>
+      <c r="K89" t="n">
+        <v>25</v>
+      </c>
+      <c r="L89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>50</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:47:55.603599</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>18</v>
+      </c>
+      <c r="G90" t="n">
+        <v>18</v>
+      </c>
+      <c r="H90" t="n">
+        <v>18</v>
+      </c>
+      <c r="I90" t="n">
+        <v>18</v>
+      </c>
+      <c r="J90" t="n">
+        <v>18</v>
+      </c>
+      <c r="K90" t="n">
+        <v>18</v>
+      </c>
+      <c r="L90" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>50</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:50:40.635820</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>20</v>
+      </c>
+      <c r="G91" t="n">
+        <v>19</v>
+      </c>
+      <c r="H91" t="n">
+        <v>19</v>
+      </c>
+      <c r="I91" t="n">
+        <v>19</v>
+      </c>
+      <c r="J91" t="n">
+        <v>19</v>
+      </c>
+      <c r="K91" t="n">
+        <v>19</v>
+      </c>
+      <c r="L91" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>50</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:50:45.342619</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>18</v>
+      </c>
+      <c r="G92" t="n">
+        <v>18</v>
+      </c>
+      <c r="H92" t="n">
+        <v>18</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>18</v>
+      </c>
+      <c r="K92" t="n">
+        <v>18</v>
+      </c>
+      <c r="L92" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>50</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:55:39.579512</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>26</v>
+      </c>
+      <c r="G93" t="n">
+        <v>26</v>
+      </c>
+      <c r="H93" t="n">
+        <v>26</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26</v>
+      </c>
+      <c r="J93" t="n">
+        <v>26</v>
+      </c>
+      <c r="K93" t="n">
+        <v>26</v>
+      </c>
+      <c r="L93" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>50</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:55:48.754052</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>34</v>
+      </c>
+      <c r="G94" t="n">
+        <v>34</v>
+      </c>
+      <c r="H94" t="n">
+        <v>34</v>
+      </c>
+      <c r="I94" t="n">
+        <v>34</v>
+      </c>
+      <c r="J94" t="n">
+        <v>34</v>
+      </c>
+      <c r="K94" t="n">
+        <v>34</v>
+      </c>
+      <c r="L94" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>50</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:55:53.425514</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>22</v>
+      </c>
+      <c r="G95" t="n">
+        <v>22</v>
+      </c>
+      <c r="H95" t="n">
+        <v>22</v>
+      </c>
+      <c r="I95" t="n">
+        <v>22</v>
+      </c>
+      <c r="J95" t="n">
+        <v>22</v>
+      </c>
+      <c r="K95" t="n">
+        <v>22</v>
+      </c>
+      <c r="L95" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>50</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:57:43.444691</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>16</v>
+      </c>
+      <c r="G96" t="n">
+        <v>16</v>
+      </c>
+      <c r="H96" t="n">
+        <v>16</v>
+      </c>
+      <c r="I96" t="n">
+        <v>16</v>
+      </c>
+      <c r="J96" t="n">
+        <v>16</v>
+      </c>
+      <c r="K96" t="n">
+        <v>16</v>
+      </c>
+      <c r="L96" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>50</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:57:49.736489</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>24</v>
+      </c>
+      <c r="G97" t="n">
+        <v>24</v>
+      </c>
+      <c r="H97" t="n">
+        <v>24</v>
+      </c>
+      <c r="I97" t="n">
+        <v>24</v>
+      </c>
+      <c r="J97" t="n">
+        <v>24</v>
+      </c>
+      <c r="K97" t="n">
+        <v>24</v>
+      </c>
+      <c r="L97" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>50</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:57:52.261337</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>28</v>
+      </c>
+      <c r="G98" t="n">
+        <v>28</v>
+      </c>
+      <c r="H98" t="n">
+        <v>28</v>
+      </c>
+      <c r="I98" t="n">
+        <v>28</v>
+      </c>
+      <c r="J98" t="n">
+        <v>28</v>
+      </c>
+      <c r="K98" t="n">
+        <v>28</v>
+      </c>
+      <c r="L98" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>50</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:15.522045</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>15</v>
+      </c>
+      <c r="G99" t="n">
+        <v>15</v>
+      </c>
+      <c r="H99" t="n">
+        <v>15</v>
+      </c>
+      <c r="I99" t="n">
+        <v>15</v>
+      </c>
+      <c r="J99" t="n">
+        <v>15</v>
+      </c>
+      <c r="K99" t="n">
+        <v>15</v>
+      </c>
+      <c r="L99" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>50</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:20.668102</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>21</v>
+      </c>
+      <c r="G100" t="n">
+        <v>21</v>
+      </c>
+      <c r="H100" t="n">
+        <v>21</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21</v>
+      </c>
+      <c r="J100" t="n">
+        <v>21</v>
+      </c>
+      <c r="K100" t="n">
+        <v>21</v>
+      </c>
+      <c r="L100" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>50</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:22.645357</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>17</v>
+      </c>
+      <c r="G101" t="n">
+        <v>16</v>
+      </c>
+      <c r="H101" t="n">
+        <v>17</v>
+      </c>
+      <c r="I101" t="n">
+        <v>17</v>
+      </c>
+      <c r="J101" t="n">
+        <v>17</v>
+      </c>
+      <c r="K101" t="n">
+        <v>17</v>
+      </c>
+      <c r="L101" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>50</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:50.924070</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>22</v>
+      </c>
+      <c r="G102" t="n">
+        <v>22</v>
+      </c>
+      <c r="H102" t="n">
+        <v>22</v>
+      </c>
+      <c r="I102" t="n">
+        <v>22</v>
+      </c>
+      <c r="J102" t="n">
+        <v>22</v>
+      </c>
+      <c r="K102" t="n">
+        <v>22</v>
+      </c>
+      <c r="L102" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>50</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:51.120336</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>30</v>
+      </c>
+      <c r="G103" t="n">
+        <v>30</v>
+      </c>
+      <c r="H103" t="n">
+        <v>30</v>
+      </c>
+      <c r="I103" t="n">
+        <v>30</v>
+      </c>
+      <c r="J103" t="n">
+        <v>30</v>
+      </c>
+      <c r="K103" t="n">
+        <v>30</v>
+      </c>
+      <c r="L103" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>50</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:51.276907</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>22</v>
+      </c>
+      <c r="G104" t="n">
+        <v>22</v>
+      </c>
+      <c r="H104" t="n">
+        <v>22</v>
+      </c>
+      <c r="I104" t="n">
+        <v>22</v>
+      </c>
+      <c r="J104" t="n">
+        <v>22</v>
+      </c>
+      <c r="K104" t="n">
+        <v>22</v>
+      </c>
+      <c r="L104" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>50</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:00:06.050385</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n">
+        <v>20</v>
+      </c>
+      <c r="H105" t="n">
+        <v>20</v>
+      </c>
+      <c r="I105" t="n">
+        <v>20</v>
+      </c>
+      <c r="J105" t="n">
+        <v>20</v>
+      </c>
+      <c r="K105" t="n">
+        <v>20</v>
+      </c>
+      <c r="L105" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>50</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:00:06.211375</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>17</v>
+      </c>
+      <c r="G106" t="n">
+        <v>17</v>
+      </c>
+      <c r="H106" t="n">
+        <v>17</v>
+      </c>
+      <c r="I106" t="n">
+        <v>17</v>
+      </c>
+      <c r="J106" t="n">
+        <v>17</v>
+      </c>
+      <c r="K106" t="n">
+        <v>17</v>
+      </c>
+      <c r="L106" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>50</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:00:06.369979</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>22</v>
+      </c>
+      <c r="G107" t="n">
+        <v>22</v>
+      </c>
+      <c r="H107" t="n">
+        <v>22</v>
+      </c>
+      <c r="I107" t="n">
+        <v>22</v>
+      </c>
+      <c r="J107" t="n">
+        <v>22</v>
+      </c>
+      <c r="K107" t="n">
+        <v>22</v>
+      </c>
+      <c r="L107" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>50</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:08:56.298674</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>21</v>
+      </c>
+      <c r="G108" t="n">
+        <v>21</v>
+      </c>
+      <c r="H108" t="n">
+        <v>21</v>
+      </c>
+      <c r="I108" t="n">
+        <v>21</v>
+      </c>
+      <c r="J108" t="n">
+        <v>21</v>
+      </c>
+      <c r="K108" t="n">
+        <v>21</v>
+      </c>
+      <c r="L108" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>50</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:08:56.401659</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="n">
+        <v>14</v>
+      </c>
+      <c r="H109" t="n">
+        <v>14</v>
+      </c>
+      <c r="I109" t="n">
+        <v>14</v>
+      </c>
+      <c r="J109" t="n">
+        <v>14</v>
+      </c>
+      <c r="K109" t="n">
+        <v>14</v>
+      </c>
+      <c r="L109" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>50</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:08:56.505460</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>18</v>
+      </c>
+      <c r="G110" t="n">
+        <v>18</v>
+      </c>
+      <c r="H110" t="n">
+        <v>18</v>
+      </c>
+      <c r="I110" t="n">
+        <v>18</v>
+      </c>
+      <c r="J110" t="n">
+        <v>18</v>
+      </c>
+      <c r="K110" t="n">
+        <v>18</v>
+      </c>
+      <c r="L110" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>50</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:10:06.738466</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>25</v>
+      </c>
+      <c r="G111" t="n">
+        <v>25</v>
+      </c>
+      <c r="H111" t="n">
+        <v>25</v>
+      </c>
+      <c r="I111" t="n">
+        <v>25</v>
+      </c>
+      <c r="J111" t="n">
+        <v>25</v>
+      </c>
+      <c r="K111" t="n">
+        <v>25</v>
+      </c>
+      <c r="L111" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>50</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:10:06.837128</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>16</v>
+      </c>
+      <c r="G112" t="n">
+        <v>16</v>
+      </c>
+      <c r="H112" t="n">
+        <v>16</v>
+      </c>
+      <c r="I112" t="n">
+        <v>16</v>
+      </c>
+      <c r="J112" t="n">
+        <v>16</v>
+      </c>
+      <c r="K112" t="n">
+        <v>16</v>
+      </c>
+      <c r="L112" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>50</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:10:06.973797</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>26</v>
+      </c>
+      <c r="G113" t="n">
+        <v>26</v>
+      </c>
+      <c r="H113" t="n">
+        <v>26</v>
+      </c>
+      <c r="I113" t="n">
+        <v>26</v>
+      </c>
+      <c r="J113" t="n">
+        <v>26</v>
+      </c>
+      <c r="K113" t="n">
+        <v>26</v>
+      </c>
+      <c r="L113" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>100</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:11:22.519594</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>32</v>
+      </c>
+      <c r="G114" t="n">
+        <v>32</v>
+      </c>
+      <c r="H114" t="n">
+        <v>32</v>
+      </c>
+      <c r="I114" t="n">
+        <v>32</v>
+      </c>
+      <c r="J114" t="n">
+        <v>32</v>
+      </c>
+      <c r="K114" t="n">
+        <v>32</v>
+      </c>
+      <c r="L114" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>100</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:11:22.621952</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>30</v>
+      </c>
+      <c r="G115" t="n">
+        <v>30</v>
+      </c>
+      <c r="H115" t="n">
+        <v>30</v>
+      </c>
+      <c r="I115" t="n">
+        <v>30</v>
+      </c>
+      <c r="J115" t="n">
+        <v>30</v>
+      </c>
+      <c r="K115" t="n">
+        <v>30</v>
+      </c>
+      <c r="L115" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>100</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:11:22.724215</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>40</v>
+      </c>
+      <c r="G116" t="n">
+        <v>40</v>
+      </c>
+      <c r="H116" t="n">
+        <v>40</v>
+      </c>
+      <c r="I116" t="n">
+        <v>40</v>
+      </c>
+      <c r="J116" t="n">
+        <v>40</v>
+      </c>
+      <c r="K116" t="n">
+        <v>40</v>
+      </c>
+      <c r="L116" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +5237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -2980,6 +6459,3660 @@
         <v>0.0008347999999998024</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>50</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:34:23.801535</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.001113923000000128</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0001033470000000314</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.002724070000000189</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01353712799999984</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01009919600000009</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0005402829999998637</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0003242910000000876</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>50</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:44:34.317680</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.001145342000000049</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.748599999990446e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.002377334000000175</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01521009399999995</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01327890700000012</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0005877989999998334</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0003795200000000776</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:45:34.274487</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.001637929999999344</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.526199999942975e-05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.002542313000000185</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01121891399999964</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.01033452099999987</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0006086280000001665</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0005103450000003562</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:50:42.097834</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.002146851000000005</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8.639399999998965e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.00588766400000007</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01123775999999999</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01041016499999992</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.00051508400000011</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0004394269999998812</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:51:35.850786</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0009136480000000446</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0001030599999998216</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.001059515000000122</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.01164427600000018</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01008147300000006</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.000837542000000191</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0004763300000001358</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>50</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:52:06.599651</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001020032000000004</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8.332899999996535e-05</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.002737650999999897</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01339074099999982</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.01124473999999998</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0004767869999999785</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.001698317999999865</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>50</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:52:28.969118</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.001233038999999714</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.334200000037484e-05</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.007186191999999814</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01393814700000018</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01248179699999996</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0006291850000001986</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.003790203999999964</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>50</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:54:11.847014</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0009194809999999443</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8.146099999972733e-05</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.003502375000000058</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01066791100000009</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01064068100000037</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0004802029999999569</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0004912990000001116</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>50</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:54:23.804939</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.001038064999999921</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.382599999994355e-05</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.001740384999999955</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.01038274800000005</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0112423880000001</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0007049999999999557</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0001675720000000602</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>50</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2021-04-20 19:55:00.968329</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0009072729999999307</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.661499999996209e-05</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0009522459999999899</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.01520810299999997</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.009598938000000112</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0005056580000000199</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0002961559999998808</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2021-04-21 20:48:16.882318</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.001024112999999716</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8.30460000003086e-05</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0001145729999993961</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0669125889999993</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0214199990000008</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0002007790000000398</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.958600000013689e-05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:06.525353</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.001210997000000269</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.870000000003813e-05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0002361920000000239</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.06695745300000056</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.01956743499999991</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0002124290000002915</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.548399999964147e-05</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:09.483497</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0004556000000004445</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.108300000003283e-05</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0001263040000001325</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.03164076699999896</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.03117543499999975</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0002875790000000933</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.077299999989293e-05</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:12.289364</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0004293680000007072</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.529199999834475e-05</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0001235360000002572</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.03743974200000011</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.03962617300000026</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0003267260000008321</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.944199999914247e-05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:30.664034</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0003913899999998804</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.668099999996286e-05</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0002210209999997659</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.02314695899999997</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0220390780000006</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.000266569999999966</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.019600000011337e-05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:33.074865</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0005162989999991652</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.737500000016269e-05</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0001655920000001032</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0340946320000004</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.03218088200000047</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0003715989999992786</v>
+      </c>
+      <c r="L45" t="n">
+        <v>7.153399999992871e-05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:21:35.670015</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0004796449999986407</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.688200000022789e-05</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0001592479999992236</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.03773832200000093</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.03824955900000049</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0004382190000011832</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0001329249999990623</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>50</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:51:58.857235</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.001227337999999634</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.695800000005136e-05</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0002306389999997549</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.03229025400000118</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.02809587800000024</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0004062499999992752</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0001092289999995444</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>50</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:52:03.492876</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0005747780000007197</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.348800000007145e-05</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0001360720000000981</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.04534745800000195</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.03673313399999856</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0003156150000016567</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.927000000127691e-05</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:52:08.508974</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0006376709999997843</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.304999999897973e-05</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0001920429999984208</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.05880013799999873</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.04837874000000042</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0004376559999990093</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0001028259999991121</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:53:49.525644</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0006767820000028735</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.811599999967939e-05</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0001928900000010003</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.02832703099999989</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.02778394599999956</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0003257140000023639</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6.115800000117133e-05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:53:54.330814</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0006323449999996456</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.639100000223493e-05</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0001824839999997607</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.03937839399999987</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.03941388099999799</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0004084169999991616</v>
+      </c>
+      <c r="L51" t="n">
+        <v>9.46959999978958e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2021-04-21 22:53:57.943463</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0005441909999994721</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.049699999773225e-05</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0001240049999999826</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.04959497599999807</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.04918587299999899</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0003616100000023437</v>
+      </c>
+      <c r="L52" t="n">
+        <v>7.507600000167258e-05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:07:38.561719</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.000529030999999236</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.577400000054354e-05</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0001431319999998237</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.02805698699999937</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.02427556299999978</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0003084470000001005</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.4104000001185e-05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:07:43.927213</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0007832350000001043</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.936499999923626e-05</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0006985469999989391</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.03829428999999962</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.03285079299999794</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0003932209999994996</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0001529869999998823</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>50</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:07:47.598546</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0005577320000007546</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.129099999947925e-05</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0001268819999999948</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.04668316199999722</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0422670459999992</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0002710830000012265</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.998300000025324e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>50</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:08:45.342388</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0006164240000003929</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.057700000004161e-05</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0001455039999989083</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.02627323399999959</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.02401797999999999</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0002977900000011857</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.528199999993433e-05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>50</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:08:53.156945</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0006178480000009756</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.082600000008483e-05</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0001274229999985721</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.03358186700000232</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.03497047399999786</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0003425529999994126</v>
+      </c>
+      <c r="L57" t="n">
+        <v>8.907899999854862e-05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>50</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:08:56.293633</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0006310229999968442</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.989500000083467e-05</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0001835330000012902</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.04802189899999831</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.04403543700000156</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.000475994000002089</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0001425329999982239</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>50</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:15:51.307012</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0006494080000010172</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.095899999967401e-05</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.00012353700000034</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.02622064000000002</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.02392270200000013</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0003604280000004678</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6.536099999898681e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>50</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:15:55.032962</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.000706666999999328</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.328700000082563e-05</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0003409320000002936</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0428363970000003</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.03504262900000121</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0004691900000004523</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0001008850000001615</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>50</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:15:58.121273</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0003921220000009384</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.056699999959278e-05</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0001726320000017267</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.06211236500000084</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.04280767999999924</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0003972810000014704</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.000100707000001421</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>50</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:22:36.934133</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.001186376999999794</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.36290000010797e-05</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0002603020000009337</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.02783697699999976</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.02677805399999933</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0003905260000003352</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.000126067000000063</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>50</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:22:39.860498</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0007178679999988447</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4.033999999997206e-05</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0003456160000006037</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0391518780000002</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.030400972999999</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0004133599999995852</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0001031430000004718</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>50</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:22:42.505118</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0007945120000023564</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.824600000257306e-05</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.00043717000000143</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.04217472300000225</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.03898694700000149</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.0003460300000028838</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.536500000071555e-05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>50</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:23:17.205612</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0006139640000011326</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.135000000005107e-05</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0001061839999998426</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.04829241999999923</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.02335870900000003</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0003331499999994492</v>
+      </c>
+      <c r="L65" t="n">
+        <v>6.50670000013065e-05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>50</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:23:19.818608</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0006256849999992653</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.763299999841706e-05</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0001855030000008639</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.03479314899999864</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.03175546100000126</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0004095520000007014</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.794400000056157e-05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>50</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2021-04-21 23:23:22.316309</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0007790350000007606</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4.000699999906487e-05</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0007256890000011396</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.04985375499999911</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.04173008499999931</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0004808060000005554</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0002016559999997725</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>50</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2021-04-22 09:54:06.065236</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.001208507999999497</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.97940000009811e-05</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0001998990000000589</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.06131655400000113</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.02019351199999875</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0002832520000008998</v>
+      </c>
+      <c r="L68" t="n">
+        <v>7.674699999959955e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>50</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2021-04-22 09:57:19.139836</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0005833790000000505</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6.842200000001242e-05</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0002379779999994724</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.02288698200000105</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.02354855300000125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0003590799999990679</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0001091970000004494</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>50</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2021-04-22 09:57:25.849790</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.000624037000001465</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3.155099999929689e-05</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0001885639999983368</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.03102256800000092</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.03049992299999715</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0003880099999982178</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.000103039999999055</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>50</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2021-04-22 09:57:28.858794</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0007126409999997918</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.253000000214001e-05</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0003505900000000395</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.03803777199999914</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.03689125900000079</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.000492024999999785</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0001741350000017405</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>50</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2021-04-22 09:59:06.484022</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0005534990000004569</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4.603300000027843e-05</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.000126815999999863</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.02400604099999981</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.02225647700000088</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0003971280000012456</v>
+      </c>
+      <c r="L72" t="n">
+        <v>9.923299999847757e-05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>50</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:04:05.077828</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0005801329999997051</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.921499999888113e-05</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0002604470000004966</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.02286666000000004</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0232916190000001</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0003903090000001441</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0004840759999993338</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>50</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:04:21.939477</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0006170349999976565</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3.043699999949467e-05</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0002901930000014374</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.03420296700000236</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.03085701299999855</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0005108229999990499</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0006016970000004562</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>50</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:13:17.521171</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0006759850000008782</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.316399999990892e-05</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0002180660000004053</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.02571214099999963</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.02395340700000048</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0003543359999991225</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0002516899999989164</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>50</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:13:35.799905</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0007470910000009212</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3.650000000021691e-05</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0004869099999993409</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.03728206200000272</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0384879139999974</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0007172569999980283</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.001706113000000897</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>50</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:13:53.410365</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0008872860000010974</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4.081200000172203e-05</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0006268199999936996</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.05161736200000178</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.04555227200000189</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0005660190000043031</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.001807611000003817</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>50</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:18:42.077992</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0007379780000000835</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4.089900000003865e-05</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0003385839999996421</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.02456285799999947</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.02481042999999872</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0005922179999995336</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0001638179999989831</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>50</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:23:07.175650</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0007120520000007957</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.219500000144592e-05</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.000258069999999222</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0255523740000001</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0234250540000005</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0003355929999990792</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0001472640000006464</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>50</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:24:17.297602</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0006194080000003765</v>
+      </c>
+      <c r="G80" t="n">
+        <v>7.364300000034518e-05</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0001349069999996289</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.02572702600000021</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02365848800000059</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0003650220000004367</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.0001348189999994531</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>50</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:25:47.909394</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.000573238000000309</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.146100000022244e-05</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0001489310000000188</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.02510909699999964</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02317527499999983</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0003582169999996054</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0001187439999998929</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>50</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:25:52.495717</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0005236439999993792</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.806600000049286e-05</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0001650719999997108</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.03126228799999886</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.03084346500000024</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0003438039999998921</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.000136772000001173</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>50</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2021-04-22 10:27:55.989580</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0005631709999995849</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3.905700000039758e-05</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0001988740000005151</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.03474320999999847</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.03356116800000031</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0005458720000000028</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.000371063000001115</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>50</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2021-04-22 11:02:52.585649</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0005090990000002904</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2.199599999919144e-05</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0001934750000014418</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.02969451699999937</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.02834009000000037</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0003421699999996974</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0001734740000003399</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>50</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:38:10.150746</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0006071270000003182</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.74809999986536e-05</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0001133329999998267</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0271708439999987</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0241710709999996</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0003062550000016984</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0001211919999999367</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>50</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:42:36.856689</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0005183779999988758</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.182400000094731e-05</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0001182550000002891</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.02877348200000007</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02508844399999965</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0003342029999995333</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.0002074819999986488</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>50</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:42:45.466882</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0004821360000022423</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.065099999981612e-05</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0001309169999998971</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.03630152499999895</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0315361799999998</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0003067570000006015</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.0001337170000006438</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>50</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:42:47.863179</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0004903269999978477</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3.192699999843285e-05</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.000166085000000038</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.04427370099999806</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.04232302299999802</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0004814149999994299</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0003664179999987027</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>50</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:47:50.529667</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0003355139999996481</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.904400000007911e-05</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0001050720000002059</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.02472477899999959</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02521302199999909</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.000329658000000066</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.000131447000001117</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>50</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:47:55.603599</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0004856239999995182</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.161599999972452e-05</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0001246520000002249</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.03689129099999988</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0345440840000002</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.0003162549999995434</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.0001181320000007702</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>50</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:50:40.635820</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0006597819999996091</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6.007300000021587e-05</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0002372450000001081</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.02584122699999991</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02487642500000042</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0004017519999992558</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.0002728900000006362</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>50</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:50:45.342619</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0005309230000012377</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.834400000040205e-05</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0002134539999989471</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.03775087500000041</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0338980650000007</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0004552449999994934</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.0002374689999999902</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>50</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:55:39.579512</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0005474839999983772</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3.690200000150412e-05</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0002081059999987644</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.03584225899999893</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.03395707399999992</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.0006221679999995899</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.0003194880000023659</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>50</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:55:48.754052</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0007347549999998648</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3.52339999984963e-05</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0001814630000005479</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.04507142099999939</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.04145445900000055</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.0004055059999998889</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.0001440750000014646</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>50</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:55:53.425514</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0005788479999999652</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.754300000162857e-05</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.000166594999999603</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.05537245100000021</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.05455255100000045</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.0004787769999978764</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.0002435030000000893</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>50</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:57:43.444691</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0005235349999992422</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4.292200000044488e-05</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0002061549999998746</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.01591084799999987</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01626918799999988</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.0007010830000000468</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0003263970000002558</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>50</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:57:49.736489</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0005477589999998145</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2.996199999927285e-05</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0001664899999997971</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.02283584300000108</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02174301600000028</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.0004292379999988327</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.0001808500000013424</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>50</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:57:52.261337</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0006154550000001535</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.950700000070583e-05</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0001715850000003627</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.02989849499999941</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02959427600000097</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.0006596650000005866</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.0002591499999997637</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>50</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:15.522045</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0005109359999995178</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3.698999999990349e-05</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0002166130000000877</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.01593621299999981</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.01580509399999919</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.0005050799999999356</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.0003254680000006616</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>50</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:20.668102</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0005897489999995287</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.835299999937035e-05</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0001655990000006824</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.02219801999999937</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02280988899999947</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.0004751460000012031</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.0002102549999989378</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>50</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:22.645357</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0005655629999985479</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.873899999933371e-05</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0001611280000002324</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.02897814700000012</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02882502000000109</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.0004409449999993598</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.000170730000000674</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>50</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:50.924070</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0004448080000001298</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.876699999987409e-05</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.000157296000000251</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.01554974999999992</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.01532167399999995</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.0004589699999995034</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.0002188309999997529</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>50</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:51.120336</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0005107720000001592</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2.870999999959878e-05</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0001750390000001545</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.01326408999999984</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.01303784600000046</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.0003863829999994906</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.0001455059999999619</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>50</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2021-04-22 12:58:51.276907</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0004570679999993388</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2.795600000027321e-05</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0001602409999996723</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.01429300900000019</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.01567366599999964</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.0004651569999998273</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.0002428260000000293</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>50</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:00:06.050385</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0004749070000000799</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2.94850000006619e-05</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0001573690000000738</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.01585399600000059</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.01500158500000026</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.0004673139999997744</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.0002110929999998845</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>50</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:00:06.211375</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0005180199999994528</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3.520600000062046e-05</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.0001714040000004857</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.01448556600000028</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.01560465599999983</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.0004645739999995513</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.0002819500000006414</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>50</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:00:06.369979</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0005334960000000777</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.534199999943866e-05</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0001840670000001765</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.01449658299999967</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.01537291799999974</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.0005277490000006324</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.0002507500000001883</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>50</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:08:56.298674</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0006334849999998227</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2.924699999962144e-05</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0001396229999999221</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.04645503400000006</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.00986901399999951</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.0003167119999991641</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.0001811649999998721</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>50</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:08:56.401659</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0003707479999999208</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2.355699999956329e-05</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0001261519999999905</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.008524996000000229</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.00976119200000003</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.0003043560000000056</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.0001293359999996468</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>50</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:08:56.505460</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0003487739999998851</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.177000000003204e-05</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0001164529999995167</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.008912886000000064</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.01033948400000018</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.0003156140000006857</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.0001501839999997756</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>50</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:10:06.738466</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0005811059999998314</v>
+      </c>
+      <c r="G111" t="n">
+        <v>6.046700000039706e-05</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0001377379999998318</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.01278820500000011</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.009532957999999869</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.0003439720000000257</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.0001837309999999093</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>50</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:10:06.837128</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.000362067000000188</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2.247799999999245e-05</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0002450519999999123</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.009668799999999589</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.009105169999999774</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.0003029689999998197</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.0001592489999997504</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>50</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:10:06.973797</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0002923670000001266</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.863699999971047e-05</v>
+      </c>
+      <c r="H113" t="n">
+        <v>9.519699999982478e-05</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.008989837000000112</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.008947333000000057</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.0003039069999997146</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.0001551069999998766</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>100</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>ba</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:11:22.519594</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0004578800000007988</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.820499999993785e-05</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0001000949999987455</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.01066930400000032</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.01119654100000034</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.0003714049999992142</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.0001424360000008562</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>100</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:11:22.621952</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0004805460000003592</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.487499999936915e-05</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0002767519999995471</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.00914379700000012</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.00974397899999957</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.0003354520000016237</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.0002083160000001527</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>100</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2021-04-22 13:11:22.724215</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0004742489999998156</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.597699999995484e-05</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.0001727250000005398</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.009582185999999382</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.01053783899999949</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.0004251210000010275</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.0003889959999998638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R685"/>
+  <dimension ref="A1:R693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A633" ySplit="1"/>
@@ -47851,6 +47851,494 @@
         <v>11</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>100</v>
+      </c>
+      <c r="B686" t="n">
+        <v>5</v>
+      </c>
+      <c r="C686" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>ba-no-cycle</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:25.981426</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>10</v>
+      </c>
+      <c r="G686" t="n">
+        <v>9</v>
+      </c>
+      <c r="H686" t="n">
+        <v>9</v>
+      </c>
+      <c r="I686" t="n">
+        <v>9</v>
+      </c>
+      <c r="J686" t="n">
+        <v>9</v>
+      </c>
+      <c r="K686" t="n">
+        <v>9</v>
+      </c>
+      <c r="L686" t="n">
+        <v>9</v>
+      </c>
+      <c r="M686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>100</v>
+      </c>
+      <c r="B687" t="n">
+        <v>5</v>
+      </c>
+      <c r="C687" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>ba-cycle</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:27.335618</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M687" t="n">
+        <v>9</v>
+      </c>
+      <c r="N687" t="n">
+        <v>9</v>
+      </c>
+      <c r="O687" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>100</v>
+      </c>
+      <c r="B688" t="n">
+        <v>5</v>
+      </c>
+      <c r="C688" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>er-no-cycle</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:28.479538</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>16</v>
+      </c>
+      <c r="G688" t="n">
+        <v>15</v>
+      </c>
+      <c r="H688" t="n">
+        <v>15</v>
+      </c>
+      <c r="I688" t="n">
+        <v>15</v>
+      </c>
+      <c r="J688" t="n">
+        <v>17</v>
+      </c>
+      <c r="K688" t="n">
+        <v>17</v>
+      </c>
+      <c r="L688" t="n">
+        <v>17</v>
+      </c>
+      <c r="M688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>100</v>
+      </c>
+      <c r="B689" t="n">
+        <v>5</v>
+      </c>
+      <c r="C689" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>er-cycle</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:29.578722</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M689" t="n">
+        <v>17</v>
+      </c>
+      <c r="N689" t="n">
+        <v>17</v>
+      </c>
+      <c r="O689" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>100</v>
+      </c>
+      <c r="B690" t="n">
+        <v>5</v>
+      </c>
+      <c r="C690" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>ws-no-cycle</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:30.838686</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>15</v>
+      </c>
+      <c r="G690" t="n">
+        <v>15</v>
+      </c>
+      <c r="H690" t="n">
+        <v>15</v>
+      </c>
+      <c r="I690" t="n">
+        <v>15</v>
+      </c>
+      <c r="J690" t="n">
+        <v>17</v>
+      </c>
+      <c r="K690" t="n">
+        <v>17</v>
+      </c>
+      <c r="L690" t="n">
+        <v>17</v>
+      </c>
+      <c r="M690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>100</v>
+      </c>
+      <c r="B691" t="n">
+        <v>5</v>
+      </c>
+      <c r="C691" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>ws-cycle</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:32.049036</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M691" t="n">
+        <v>17</v>
+      </c>
+      <c r="N691" t="n">
+        <v>17</v>
+      </c>
+      <c r="O691" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>100</v>
+      </c>
+      <c r="B692" t="n">
+        <v>5</v>
+      </c>
+      <c r="C692" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>cluster no cycle</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:33.299399</t>
+        </is>
+      </c>
+      <c r="F692" t="n">
+        <v>8</v>
+      </c>
+      <c r="G692" t="n">
+        <v>6</v>
+      </c>
+      <c r="H692" t="n">
+        <v>5</v>
+      </c>
+      <c r="I692" t="n">
+        <v>8</v>
+      </c>
+      <c r="J692" t="n">
+        <v>8</v>
+      </c>
+      <c r="K692" t="n">
+        <v>8</v>
+      </c>
+      <c r="L692" t="n">
+        <v>7</v>
+      </c>
+      <c r="M692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>100</v>
+      </c>
+      <c r="B693" t="n">
+        <v>5</v>
+      </c>
+      <c r="C693" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>cluster cycle</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:34.541706</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M693" t="n">
+        <v>9</v>
+      </c>
+      <c r="N693" t="n">
+        <v>9</v>
+      </c>
+      <c r="O693" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="Q1:Q1048576 R89:R677">
     <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
@@ -47870,7 +48358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L686"/>
+  <dimension ref="A1:L694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A599" ySplit="1"/>
@@ -79464,6 +79952,374 @@
         <v>0.01094899999999832</v>
       </c>
     </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>100</v>
+      </c>
+      <c r="B687" t="n">
+        <v>5</v>
+      </c>
+      <c r="C687" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>ba-no-cycle</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:25.981426</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>0.001077299999999504</v>
+      </c>
+      <c r="G687" t="n">
+        <v>3.789999999970206e-05</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0.0003001999999998617</v>
+      </c>
+      <c r="I687" t="n">
+        <v>0.1005037</v>
+      </c>
+      <c r="J687" t="n">
+        <v>0.03408630000000024</v>
+      </c>
+      <c r="K687" t="n">
+        <v>0.001165099999999697</v>
+      </c>
+      <c r="L687" t="n">
+        <v>0.003844700000000145</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>100</v>
+      </c>
+      <c r="B688" t="n">
+        <v>5</v>
+      </c>
+      <c r="C688" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>ba-cycle</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:27.335618</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J688" t="n">
+        <v>0.02971839999999926</v>
+      </c>
+      <c r="K688" t="n">
+        <v>0.001436599999999899</v>
+      </c>
+      <c r="L688" t="n">
+        <v>0.004262200000000327</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>100</v>
+      </c>
+      <c r="B689" t="n">
+        <v>5</v>
+      </c>
+      <c r="C689" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>er-no-cycle</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:28.479538</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>0.001485299999998801</v>
+      </c>
+      <c r="G689" t="n">
+        <v>4.329999999974632e-05</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0.001349799999999846</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0.02769340000000042</v>
+      </c>
+      <c r="J689" t="n">
+        <v>0.03491249999999901</v>
+      </c>
+      <c r="K689" t="n">
+        <v>0.002270299999999281</v>
+      </c>
+      <c r="L689" t="n">
+        <v>0.007313900000001539</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>100</v>
+      </c>
+      <c r="B690" t="n">
+        <v>5</v>
+      </c>
+      <c r="C690" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>er-cycle</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:29.578722</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J690" t="n">
+        <v>0.03173600000000043</v>
+      </c>
+      <c r="K690" t="n">
+        <v>0.002243299999999948</v>
+      </c>
+      <c r="L690" t="n">
+        <v>0.00457139999999967</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>100</v>
+      </c>
+      <c r="B691" t="n">
+        <v>5</v>
+      </c>
+      <c r="C691" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>ws-no-cycle</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:30.838686</t>
+        </is>
+      </c>
+      <c r="F691" t="n">
+        <v>0.0008294000000006463</v>
+      </c>
+      <c r="G691" t="n">
+        <v>4.129999999946676e-05</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0.001922199999999208</v>
+      </c>
+      <c r="I691" t="n">
+        <v>0.04313340000000032</v>
+      </c>
+      <c r="J691" t="n">
+        <v>0.03205510000000089</v>
+      </c>
+      <c r="K691" t="n">
+        <v>0.001304299999999259</v>
+      </c>
+      <c r="L691" t="n">
+        <v>0.007454700000000258</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>100</v>
+      </c>
+      <c r="B692" t="n">
+        <v>5</v>
+      </c>
+      <c r="C692" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>ws-cycle</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:32.049036</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J692" t="n">
+        <v>0.03791980000000095</v>
+      </c>
+      <c r="K692" t="n">
+        <v>0.001131599999999011</v>
+      </c>
+      <c r="L692" t="n">
+        <v>0.003034800000000004</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>100</v>
+      </c>
+      <c r="B693" t="n">
+        <v>5</v>
+      </c>
+      <c r="C693" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>cluster no cycle</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:33.299399</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>0.00235890000000083</v>
+      </c>
+      <c r="G693" t="n">
+        <v>9.780000000070288e-05</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0.07004419999999989</v>
+      </c>
+      <c r="I693" t="n">
+        <v>0.03571789999999986</v>
+      </c>
+      <c r="J693" t="n">
+        <v>0.02953229999999962</v>
+      </c>
+      <c r="K693" t="n">
+        <v>0.00182840000000084</v>
+      </c>
+      <c r="L693" t="n">
+        <v>0.00753040000000027</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>100</v>
+      </c>
+      <c r="B694" t="n">
+        <v>5</v>
+      </c>
+      <c r="C694" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>cluster cycle</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>2021-06-11 14:24:34.541706</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J694" t="n">
+        <v>0.03375079999999997</v>
+      </c>
+      <c r="K694" t="n">
+        <v>0.005551399999999873</v>
+      </c>
+      <c r="L694" t="n">
+        <v>0.01359309999999958</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currently_in_use/tests/Test_results.xlsx
+++ b/currently_in_use/tests/Test_results.xlsx
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R693"/>
+  <dimension ref="A1:R709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A633" ySplit="1"/>
@@ -48339,6 +48339,982 @@
         <v>9</v>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>100</v>
+      </c>
+      <c r="B694" t="n">
+        <v>5</v>
+      </c>
+      <c r="C694" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>ba-no-cycle</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:32.720444</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>4</v>
+      </c>
+      <c r="G694" t="n">
+        <v>2</v>
+      </c>
+      <c r="H694" t="n">
+        <v>2</v>
+      </c>
+      <c r="I694" t="n">
+        <v>2</v>
+      </c>
+      <c r="J694" t="n">
+        <v>15</v>
+      </c>
+      <c r="K694" t="n">
+        <v>15</v>
+      </c>
+      <c r="L694" t="n">
+        <v>15</v>
+      </c>
+      <c r="M694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>100</v>
+      </c>
+      <c r="B695" t="n">
+        <v>5</v>
+      </c>
+      <c r="C695" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>ba-cycle</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:34.256386</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M695" t="n">
+        <v>15</v>
+      </c>
+      <c r="N695" t="n">
+        <v>15</v>
+      </c>
+      <c r="O695" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>100</v>
+      </c>
+      <c r="B696" t="n">
+        <v>5</v>
+      </c>
+      <c r="C696" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>er-no-cycle</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:35.501490</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>8</v>
+      </c>
+      <c r="G696" t="n">
+        <v>9</v>
+      </c>
+      <c r="H696" t="n">
+        <v>9</v>
+      </c>
+      <c r="I696" t="n">
+        <v>9</v>
+      </c>
+      <c r="J696" t="n">
+        <v>10</v>
+      </c>
+      <c r="K696" t="n">
+        <v>10</v>
+      </c>
+      <c r="L696" t="n">
+        <v>10</v>
+      </c>
+      <c r="M696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>100</v>
+      </c>
+      <c r="B697" t="n">
+        <v>5</v>
+      </c>
+      <c r="C697" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>er-cycle</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:36.580797</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M697" t="n">
+        <v>10</v>
+      </c>
+      <c r="N697" t="n">
+        <v>10</v>
+      </c>
+      <c r="O697" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>100</v>
+      </c>
+      <c r="B698" t="n">
+        <v>5</v>
+      </c>
+      <c r="C698" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>ws-no-cycle</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:37.738037</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>1</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H698" t="n">
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>1</v>
+      </c>
+      <c r="J698" t="n">
+        <v>1</v>
+      </c>
+      <c r="K698" t="n">
+        <v>1</v>
+      </c>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>100</v>
+      </c>
+      <c r="B699" t="n">
+        <v>5</v>
+      </c>
+      <c r="C699" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>ws-cycle</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:39.095243</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M699" t="n">
+        <v>1</v>
+      </c>
+      <c r="N699" t="n">
+        <v>1</v>
+      </c>
+      <c r="O699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>100</v>
+      </c>
+      <c r="B700" t="n">
+        <v>5</v>
+      </c>
+      <c r="C700" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>cluster no cycle</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:40.352415</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>14</v>
+      </c>
+      <c r="G700" t="n">
+        <v>14</v>
+      </c>
+      <c r="H700" t="n">
+        <v>11</v>
+      </c>
+      <c r="I700" t="n">
+        <v>14</v>
+      </c>
+      <c r="J700" t="n">
+        <v>14</v>
+      </c>
+      <c r="K700" t="n">
+        <v>14</v>
+      </c>
+      <c r="L700" t="n">
+        <v>14</v>
+      </c>
+      <c r="M700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>100</v>
+      </c>
+      <c r="B701" t="n">
+        <v>5</v>
+      </c>
+      <c r="C701" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>cluster cycle</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:41.731323</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M701" t="n">
+        <v>13</v>
+      </c>
+      <c r="N701" t="n">
+        <v>13</v>
+      </c>
+      <c r="O701" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>100</v>
+      </c>
+      <c r="B702" t="n">
+        <v>5</v>
+      </c>
+      <c r="C702" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>ba-no-cycle</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:15.167025</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>16</v>
+      </c>
+      <c r="G702" t="n">
+        <v>14</v>
+      </c>
+      <c r="H702" t="n">
+        <v>14</v>
+      </c>
+      <c r="I702" t="n">
+        <v>14</v>
+      </c>
+      <c r="J702" t="n">
+        <v>14</v>
+      </c>
+      <c r="K702" t="n">
+        <v>14</v>
+      </c>
+      <c r="L702" t="n">
+        <v>14</v>
+      </c>
+      <c r="M702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>100</v>
+      </c>
+      <c r="B703" t="n">
+        <v>5</v>
+      </c>
+      <c r="C703" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>ba-cycle</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:16.363163</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M703" t="n">
+        <v>14</v>
+      </c>
+      <c r="N703" t="n">
+        <v>14</v>
+      </c>
+      <c r="O703" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>100</v>
+      </c>
+      <c r="B704" t="n">
+        <v>5</v>
+      </c>
+      <c r="C704" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>er-no-cycle</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:17.438332</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>3</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-11</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+      <c r="I704" t="n">
+        <v>1</v>
+      </c>
+      <c r="J704" t="n">
+        <v>1</v>
+      </c>
+      <c r="K704" t="n">
+        <v>1</v>
+      </c>
+      <c r="L704" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>100</v>
+      </c>
+      <c r="B705" t="n">
+        <v>5</v>
+      </c>
+      <c r="C705" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>er-cycle</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:18.664559</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M705" t="n">
+        <v>1</v>
+      </c>
+      <c r="N705" t="n">
+        <v>1</v>
+      </c>
+      <c r="O705" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>100</v>
+      </c>
+      <c r="B706" t="n">
+        <v>5</v>
+      </c>
+      <c r="C706" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>ws-no-cycle</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:19.916148</t>
+        </is>
+      </c>
+      <c r="F706" t="n">
+        <v>4</v>
+      </c>
+      <c r="G706" t="n">
+        <v>2</v>
+      </c>
+      <c r="H706" t="n">
+        <v>2</v>
+      </c>
+      <c r="I706" t="n">
+        <v>2</v>
+      </c>
+      <c r="J706" t="n">
+        <v>3</v>
+      </c>
+      <c r="K706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L706" t="n">
+        <v>3</v>
+      </c>
+      <c r="M706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>100</v>
+      </c>
+      <c r="B707" t="n">
+        <v>5</v>
+      </c>
+      <c r="C707" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>ws-cycle</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:21.013486</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M707" t="n">
+        <v>3</v>
+      </c>
+      <c r="N707" t="n">
+        <v>0</v>
+      </c>
+      <c r="O707" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>100</v>
+      </c>
+      <c r="B708" t="n">
+        <v>5</v>
+      </c>
+      <c r="C708" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>cluster no cycle</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:22.083597</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>14</v>
+      </c>
+      <c r="G708" t="n">
+        <v>12</v>
+      </c>
+      <c r="H708" t="n">
+        <v>13</v>
+      </c>
+      <c r="I708" t="n">
+        <v>14</v>
+      </c>
+      <c r="J708" t="n">
+        <v>14</v>
+      </c>
+      <c r="K708" t="n">
+        <v>14</v>
+      </c>
+      <c r="L708" t="n">
+        <v>13</v>
+      </c>
+      <c r="M708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>100</v>
+      </c>
+      <c r="B709" t="n">
+        <v>5</v>
+      </c>
+      <c r="C709" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>cluster cycle</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:23.418709</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M709" t="n">
+        <v>4</v>
+      </c>
+      <c r="N709" t="n">
+        <v>3</v>
+      </c>
+      <c r="O709" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="Q1:Q1048576 R89:R677">
     <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
@@ -48358,7 +49334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L694"/>
+  <dimension ref="A1:L710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A599" ySplit="1"/>
@@ -80320,6 +81296,742 @@
         <v>0.01359309999999958</v>
       </c>
     </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>100</v>
+      </c>
+      <c r="B695" t="n">
+        <v>5</v>
+      </c>
+      <c r="C695" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>ba-no-cycle</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:32.720444</t>
+        </is>
+      </c>
+      <c r="F695" t="n">
+        <v>0.04976590000000058</v>
+      </c>
+      <c r="G695" t="n">
+        <v>5.920000000081416e-05</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0.04490209999999983</v>
+      </c>
+      <c r="I695" t="n">
+        <v>0.1264978000000001</v>
+      </c>
+      <c r="J695" t="n">
+        <v>0.03520579999999995</v>
+      </c>
+      <c r="K695" t="n">
+        <v>0.001519000000000048</v>
+      </c>
+      <c r="L695" t="n">
+        <v>0.004674200000000184</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>100</v>
+      </c>
+      <c r="B696" t="n">
+        <v>5</v>
+      </c>
+      <c r="C696" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>ba-cycle</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:34.256386</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J696" t="n">
+        <v>0.03518600000000038</v>
+      </c>
+      <c r="K696" t="n">
+        <v>0.0020876000000003</v>
+      </c>
+      <c r="L696" t="n">
+        <v>0.005920099999999984</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>100</v>
+      </c>
+      <c r="B697" t="n">
+        <v>5</v>
+      </c>
+      <c r="C697" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>er-no-cycle</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:35.501490</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>0.01122630000000058</v>
+      </c>
+      <c r="G697" t="n">
+        <v>4.139999999885902e-05</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0.004135199999998562</v>
+      </c>
+      <c r="I697" t="n">
+        <v>0.02822910000000078</v>
+      </c>
+      <c r="J697" t="n">
+        <v>0.02811479999999911</v>
+      </c>
+      <c r="K697" t="n">
+        <v>0.0009005999999995851</v>
+      </c>
+      <c r="L697" t="n">
+        <v>0.002771700000000266</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>100</v>
+      </c>
+      <c r="B698" t="n">
+        <v>5</v>
+      </c>
+      <c r="C698" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>er-cycle</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:36.580797</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J698" t="n">
+        <v>0.02917229999999904</v>
+      </c>
+      <c r="K698" t="n">
+        <v>0.001201599999999914</v>
+      </c>
+      <c r="L698" t="n">
+        <v>0.003455799999999343</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>100</v>
+      </c>
+      <c r="B699" t="n">
+        <v>5</v>
+      </c>
+      <c r="C699" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>ws-no-cycle</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:37.738037</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>0.001196900000000056</v>
+      </c>
+      <c r="G699" t="n">
+        <v>7.62999999999181e-05</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0.0008893000000007589</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0.02579710000000013</v>
+      </c>
+      <c r="J699" t="n">
+        <v>0.02974460000000079</v>
+      </c>
+      <c r="K699" t="n">
+        <v>0.002602300000001279</v>
+      </c>
+      <c r="L699" t="n">
+        <v>0.004880999999999247</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>100</v>
+      </c>
+      <c r="B700" t="n">
+        <v>5</v>
+      </c>
+      <c r="C700" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>ws-cycle</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:39.095243</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J700" t="n">
+        <v>0.02962920000000047</v>
+      </c>
+      <c r="K700" t="n">
+        <v>0.002230700000000141</v>
+      </c>
+      <c r="L700" t="n">
+        <v>0.00433679999999903</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>100</v>
+      </c>
+      <c r="B701" t="n">
+        <v>5</v>
+      </c>
+      <c r="C701" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>cluster no cycle</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:40.352415</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>0.001701599999998749</v>
+      </c>
+      <c r="G701" t="n">
+        <v>6.899999999987472e-05</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0.01722519999999861</v>
+      </c>
+      <c r="I701" t="n">
+        <v>0.03470490000000126</v>
+      </c>
+      <c r="J701" t="n">
+        <v>0.03040220000000105</v>
+      </c>
+      <c r="K701" t="n">
+        <v>0.001623300000000327</v>
+      </c>
+      <c r="L701" t="n">
+        <v>0.005242399999998426</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>100</v>
+      </c>
+      <c r="B702" t="n">
+        <v>5</v>
+      </c>
+      <c r="C702" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>cluster cycle</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:37:41.731323</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J702" t="n">
+        <v>0.03181549999999866</v>
+      </c>
+      <c r="K702" t="n">
+        <v>0.001281900000000391</v>
+      </c>
+      <c r="L702" t="n">
+        <v>0.004743299999999451</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>100</v>
+      </c>
+      <c r="B703" t="n">
+        <v>5</v>
+      </c>
+      <c r="C703" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>ba-no-cycle</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:15.167025</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>0.001415399999999956</v>
+      </c>
+      <c r="G703" t="n">
+        <v>4.319999999990998e-05</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0.0006435000000002411</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.03166400000000014</v>
+      </c>
+      <c r="J703" t="n">
+        <v>0.03287930000000028</v>
+      </c>
+      <c r="K703" t="n">
+        <v>0.00128869999999992</v>
+      </c>
+      <c r="L703" t="n">
+        <v>0.003823500000000202</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>100</v>
+      </c>
+      <c r="B704" t="n">
+        <v>5</v>
+      </c>
+      <c r="C704" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>ba-cycle</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:16.363163</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J704" t="n">
+        <v>0.0306002000000003</v>
+      </c>
+      <c r="K704" t="n">
+        <v>0.001087700000000247</v>
+      </c>
+      <c r="L704" t="n">
+        <v>0.003167200000000037</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>100</v>
+      </c>
+      <c r="B705" t="n">
+        <v>5</v>
+      </c>
+      <c r="C705" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>er-no-cycle</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:17.438332</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>0.001273200000000863</v>
+      </c>
+      <c r="G705" t="n">
+        <v>4.739999999969768e-05</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0.04664279999999987</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.03127879999999994</v>
+      </c>
+      <c r="J705" t="n">
+        <v>0.05611419999999967</v>
+      </c>
+      <c r="K705" t="n">
+        <v>0.002721799999999774</v>
+      </c>
+      <c r="L705" t="n">
+        <v>0.00522530000000021</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>100</v>
+      </c>
+      <c r="B706" t="n">
+        <v>5</v>
+      </c>
+      <c r="C706" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>er-cycle</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:18.664559</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J706" t="n">
+        <v>0.05648840000000011</v>
+      </c>
+      <c r="K706" t="n">
+        <v>0.002850500000000089</v>
+      </c>
+      <c r="L706" t="n">
+        <v>0.006328499999999515</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>100</v>
+      </c>
+      <c r="B707" t="n">
+        <v>5</v>
+      </c>
+      <c r="C707" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>ws-no-cycle</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:19.916148</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>0.0006739000000006712</v>
+      </c>
+      <c r="G707" t="n">
+        <v>2.939999999895804e-05</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0.0002706000000003428</v>
+      </c>
+      <c r="I707" t="n">
+        <v>0.02959759999999889</v>
+      </c>
+      <c r="J707" t="n">
+        <v>0.03197600000000023</v>
+      </c>
+      <c r="K707" t="n">
+        <v>0.001204300000001268</v>
+      </c>
+      <c r="L707" t="n">
+        <v>0.003281199999999984</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>100</v>
+      </c>
+      <c r="B708" t="n">
+        <v>5</v>
+      </c>
+      <c r="C708" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>ws-cycle</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:21.013486</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J708" t="n">
+        <v>0.03321019999999919</v>
+      </c>
+      <c r="K708" t="n">
+        <v>0.001198799999999167</v>
+      </c>
+      <c r="L708" t="n">
+        <v>0.002681400000000167</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>100</v>
+      </c>
+      <c r="B709" t="n">
+        <v>5</v>
+      </c>
+      <c r="C709" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>cluster no cycle</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:22.083597</t>
+        </is>
+      </c>
+      <c r="F709" t="n">
+        <v>0.00184530000000116</v>
+      </c>
+      <c r="G709" t="n">
+        <v>5.100000000091143e-05</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0.01588459999999969</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.03523429999999905</v>
+      </c>
+      <c r="J709" t="n">
+        <v>0.03513260000000074</v>
+      </c>
+      <c r="K709" t="n">
+        <v>0.002214999999999634</v>
+      </c>
+      <c r="L709" t="n">
+        <v>0.008323600000000653</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>100</v>
+      </c>
+      <c r="B710" t="n">
+        <v>5</v>
+      </c>
+      <c r="C710" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>cluster cycle</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>2021-06-17 11:38:23.418709</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J710" t="n">
+        <v>0.0340246999999998</v>
+      </c>
+      <c r="K710" t="n">
+        <v>0.002088699999999832</v>
+      </c>
+      <c r="L710" t="n">
+        <v>0.007329300000000316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
